--- a/20.xlsx
+++ b/20.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bfarleigh1\Desktop\FPix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="16040" yWindow="300" windowWidth="15620" windowHeight="19940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$80</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -321,9 +316,6 @@
   </si>
   <si>
     <t>PSI</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Corrected</t>
@@ -413,7 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -653,9 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="181">
@@ -1241,112 +1233,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="9"/>
-    <col min="6" max="6" width="10.875" style="5"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="9"/>
+    <col min="6" max="6" width="11" style="5"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="26.25">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="32">
+      <c r="B3" s="27"/>
+      <c r="C3" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>79980109</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>0.1</v>
       </c>
       <c r="I6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>1268080</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
+      <c r="B9" s="27"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1362,17 +1354,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O16" s="18" t="s">
+    <row r="16" spans="1:15">
+      <c r="O16" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,10 +1386,10 @@
       <c r="G17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="19" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="6" t="s">
@@ -1406,11 +1398,11 @@
       <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1426,7 +1418,7 @@
       <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="str">
@@ -1439,9 +1431,10 @@
       <c r="J18" t="s">
         <v>13</v>
       </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="9" t="str">
-        <f t="shared" ref="L18:L33" si="0">IF(K18&lt;K$34,"ok","NOK")</f>
-        <v>ok</v>
+        <f t="shared" ref="L18:L33" si="0">IF(AND(K18&lt;K$34,ISNUMBER(K18)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O18">
         <f t="shared" ref="O18:O51" si="1">IF(G18="NOK",1,0)</f>
@@ -1449,10 +1442,10 @@
       </c>
       <c r="P18">
         <f>IF(L18="NOK",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1461,7 @@
       <c r="E19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="5" t="str">
@@ -1481,9 +1474,10 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
+      <c r="K19" s="12"/>
       <c r="L19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
@@ -1491,10 +1485,10 @@
       </c>
       <c r="P19">
         <f t="shared" ref="P19:P33" si="2">IF(L19="NOK",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1524,9 +1518,10 @@
       <c r="J20" t="s">
         <v>9</v>
       </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
@@ -1534,10 +1529,10 @@
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1567,9 +1562,10 @@
       <c r="J21" t="s">
         <v>9</v>
       </c>
+      <c r="K21" s="12"/>
       <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
@@ -1577,10 +1573,10 @@
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1592,7 @@
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="5" t="str">
@@ -1609,9 +1605,10 @@
       <c r="J22" t="s">
         <v>15</v>
       </c>
+      <c r="K22" s="12"/>
       <c r="L22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
@@ -1619,10 +1616,10 @@
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1635,7 @@
       <c r="E23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="5" t="str">
@@ -1651,9 +1648,10 @@
       <c r="J23" t="s">
         <v>16</v>
       </c>
+      <c r="K23" s="12"/>
       <c r="L23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
@@ -1661,10 +1659,10 @@
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1678,7 @@
       <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="5" t="str">
@@ -1693,9 +1691,10 @@
       <c r="J24" t="s">
         <v>17</v>
       </c>
+      <c r="K24" s="12"/>
       <c r="L24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
@@ -1703,10 +1702,10 @@
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1721,7 @@
       <c r="E25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="5" t="str">
@@ -1735,9 +1734,10 @@
       <c r="J25" t="s">
         <v>18</v>
       </c>
+      <c r="K25" s="12"/>
       <c r="L25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
@@ -1745,10 +1745,10 @@
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="E26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="5" t="str">
@@ -1777,9 +1777,10 @@
       <c r="J26" t="s">
         <v>19</v>
       </c>
+      <c r="K26" s="12"/>
       <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
@@ -1787,10 +1788,10 @@
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1807,7 @@
       <c r="E27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="5" t="str">
@@ -1819,9 +1820,10 @@
       <c r="J27" t="s">
         <v>20</v>
       </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
@@ -1829,10 +1831,10 @@
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1850,7 @@
       <c r="E28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="5" t="str">
@@ -1861,9 +1863,10 @@
       <c r="J28" t="s">
         <v>21</v>
       </c>
+      <c r="K28" s="12"/>
       <c r="L28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
@@ -1871,10 +1874,10 @@
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="E29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="5" t="str">
@@ -1903,9 +1906,10 @@
       <c r="J29" t="s">
         <v>22</v>
       </c>
+      <c r="K29" s="12"/>
       <c r="L29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
@@ -1913,10 +1917,10 @@
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1932,7 +1936,7 @@
       <c r="E30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="5" t="str">
@@ -1945,9 +1949,10 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="K30" s="12"/>
       <c r="L30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
@@ -1955,10 +1960,10 @@
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1974,7 +1979,7 @@
       <c r="E31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="5" t="str">
@@ -1987,9 +1992,10 @@
       <c r="J31" t="s">
         <v>10</v>
       </c>
+      <c r="K31" s="12"/>
       <c r="L31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
@@ -1997,10 +2003,10 @@
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2017,7 +2023,7 @@
         <f>D32*0.05</f>
         <v>6</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>119.9</v>
       </c>
       <c r="G32" s="5" t="str">
@@ -2030,9 +2036,10 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
+      <c r="K32" s="12"/>
       <c r="L32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
@@ -2040,10 +2047,10 @@
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2066,7 @@
       <c r="E33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="5" t="str">
@@ -2072,9 +2079,10 @@
       <c r="J33" t="s">
         <v>12</v>
       </c>
+      <c r="K33" s="12"/>
       <c r="L33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
@@ -2082,10 +2090,10 @@
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2102,7 +2110,7 @@
         <f>D34*0.05</f>
         <v>6</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>120.2</v>
       </c>
       <c r="G34" s="5" t="str">
@@ -2112,7 +2120,7 @@
       <c r="I34" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="18">
         <v>1</v>
       </c>
       <c r="O34">
@@ -2120,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2136,7 +2144,7 @@
       <c r="E35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="5" t="str">
@@ -2150,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2167,27 +2175,27 @@
         <f>D36*0.05</f>
         <v>4.55</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>90.9</v>
       </c>
       <c r="G36" s="5" t="str">
         <f>IF(ABS(F36-D36)&lt;=E36,"ok","NOK")</f>
         <v>ok</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
       <c r="O36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2203,24 +2211,24 @@
       <c r="E37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="5" t="str">
         <f>IF(F37="∞","ok","NOK")</f>
         <v>ok</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
       <c r="O37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2245,7 @@
         <f>D38*0.05</f>
         <v>4.55</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>91.2</v>
       </c>
       <c r="G38" s="5" t="str">
@@ -2249,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2265,17 +2273,17 @@
       <c r="E39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="5" t="str">
         <f>IF(F39="∞","ok","NOK")</f>
         <v>ok</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="19" t="s">
         <v>55</v>
       </c>
       <c r="K39" s="6" t="s">
@@ -2289,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2314,7 @@
         <f>D40*0.05</f>
         <v>4.55</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="15">
         <v>91.2</v>
       </c>
       <c r="G40" s="5" t="str">
@@ -2319,20 +2327,21 @@
       <c r="J40" t="s">
         <v>8</v>
       </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="9" t="str">
-        <f>IF(K40&lt;K$48,"ok","NOK")</f>
-        <v>ok</v>
+        <f t="shared" ref="L40:L47" si="5">IF(AND(K40&lt;K$48,ISNUMBER(K40)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" ref="P40:P47" si="5">IF(L40="NOK",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P40:P47" si="6">IF(L40="NOK",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -2362,20 +2371,21 @@
       <c r="J41" t="s">
         <v>8</v>
       </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="9" t="str">
-        <f t="shared" ref="L41:L47" si="6">IF(K41&lt;K$48,"ok","NOK")</f>
-        <v>ok</v>
+        <f t="shared" si="5"/>
+        <v>NOK</v>
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -2405,20 +2415,21 @@
       <c r="J42" t="s">
         <v>9</v>
       </c>
+      <c r="K42" s="12"/>
       <c r="L42" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2436,7 +2447,7 @@
         <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
         <v>5.3204793017170928</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="15">
         <v>168.8</v>
       </c>
       <c r="G43" s="5" t="str">
@@ -2449,20 +2460,21 @@
       <c r="J43" t="s">
         <v>8</v>
       </c>
+      <c r="K43" s="12"/>
       <c r="L43" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2480,7 +2492,7 @@
         <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
         <v>5.3204793017170928</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="15">
         <v>168.9</v>
       </c>
       <c r="G44" s="5" t="str">
@@ -2493,20 +2505,21 @@
       <c r="J44" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="K44" s="12"/>
       <c r="L44" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2524,7 +2537,7 @@
         <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
         <v>5.3204793017170928</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="36">
         <v>169.3</v>
       </c>
       <c r="G45" s="5" t="str">
@@ -2537,20 +2550,21 @@
       <c r="J45" t="s">
         <v>10</v>
       </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2580,20 +2594,21 @@
       <c r="J46" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="K46" s="12"/>
       <c r="L46" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2609,7 +2624,7 @@
       <c r="E47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="5" t="str">
@@ -2622,20 +2637,21 @@
       <c r="J47" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="K47" s="12"/>
       <c r="L47" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v>NOK</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2667,7 @@
       <c r="E48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G48" s="5" t="str">
@@ -2669,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2701,7 @@
       <c r="E49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="5" t="str">
@@ -2697,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2713,25 +2729,25 @@
       <c r="E50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G50" s="5" t="str">
         <f>IF(F50="∞","ok","NOK")</f>
         <v>ok</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
       <c r="O50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -2747,25 +2763,25 @@
       <c r="E51" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="30" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="5" t="str">
         <f>IF(F51="∞","ok","NOK")</f>
         <v>ok</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
       <c r="O51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -2774,7 +2790,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -2784,11 +2800,11 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2800,11 +2816,11 @@
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
-      <c r="M57" s="31" t="s">
+      <c r="M57" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2816,34 +2832,32 @@
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
-      <c r="M58" s="31" t="s">
+      <c r="M58" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="I59" t="s">
         <v>76</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
-      <c r="M59" s="31" t="s">
+      <c r="M59" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="23"/>
+    </row>
+    <row r="62" spans="1:15" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +2868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2864,49 +2878,49 @@
       <c r="I65" t="s">
         <v>94</v>
       </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J65" s="24"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="B66" t="s">
         <v>68</v>
       </c>
       <c r="I66" t="s">
         <v>86</v>
       </c>
-      <c r="K66" s="33"/>
+      <c r="K66" s="32"/>
       <c r="L66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M66" s="18" t="s">
+      <c r="M66" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="B67" t="s">
         <v>69</v>
       </c>
       <c r="I67" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="33"/>
+      <c r="K67" s="32"/>
       <c r="L67" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M67" s="18" t="s">
+      <c r="M67" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="B68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="I69" t="s">
         <v>95</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="33">
         <f>102000*K67*0.000001</f>
         <v>0</v>
       </c>
@@ -2914,32 +2928,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="25"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I70" s="26" t="s">
+      <c r="I70" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="B72" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="25">
+      <c r="C72" s="24">
         <f>C71-C70</f>
         <v>0</v>
       </c>
@@ -2952,13 +2966,13 @@
       <c r="F72" s="5">
         <v>0.01</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-      <c r="K72" s="19">
+        <v>98</v>
+      </c>
+      <c r="K72" s="18">
         <f>K66+K69</f>
         <v>0</v>
       </c>
@@ -2966,17 +2980,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="25"/>
-      <c r="D73" s="17"/>
-      <c r="G73" s="26"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="25"/>
+    <row r="73" spans="1:13">
+      <c r="C73" s="24"/>
+      <c r="D73" s="16"/>
+      <c r="G73" s="25"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="C74" s="24"/>
       <c r="D74" s="4"/>
-      <c r="G74" s="26"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G74" s="25"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -2985,28 +2999,28 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B78" s="14"/>
-      <c r="C78" s="23" t="str">
+      <c r="C78" s="22" t="str">
         <f>IF(AND(B53="PASS",B60="PASS",B75="PASS",M57="y",M58="y",M59="y"),"ACCEPTED","REJECTED")</f>
         <v>REJECTED</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="27"/>
+      <c r="B80" s="26"/>
       <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="35"/>
+      <c r="F80" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20.xlsx
+++ b/20.xlsx
@@ -697,11 +697,11 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="181">
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1255,12 +1255,12 @@
     <col min="12" max="12" width="4.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25">
+    <row r="1" spans="1:15" ht="25">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75">
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1272,7 +1272,7 @@
     <row r="4" spans="1:15">
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75">
+    <row r="5" spans="1:15" ht="18">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="B9" s="27"/>
       <c r="C9" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75">
+    <row r="11" spans="1:15" ht="18">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2182,12 +2182,12 @@
         <f>IF(ABS(F36-D36)&lt;=E36,"ok","NOK")</f>
         <v>ok</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36">
@@ -2537,7 +2537,7 @@
         <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
         <v>5.3204793017170928</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <v>169.3</v>
       </c>
       <c r="G45" s="5" t="str">
@@ -2790,7 +2790,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75">
+    <row r="55" spans="1:15" ht="18">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="B60" s="23"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75">
+    <row r="62" spans="1:15" ht="18">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,7 +2932,9 @@
       <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="24">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>45</v>
       </c>
@@ -2944,7 +2946,9 @@
       <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="24">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>45</v>
       </c>
@@ -2955,7 +2959,7 @@
       </c>
       <c r="C72" s="24">
         <f>C71-C70</f>
-        <v>0</v>
+        <v>3.0000000000000027E-3</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>45</v>
@@ -3002,7 +3006,7 @@
     <row r="77" spans="1:13">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75">
+    <row r="78" spans="1:13" ht="18">
       <c r="A78" s="1" t="s">
         <v>66</v>
       </c>

--- a/20.xlsx
+++ b/20.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="300" windowWidth="15620" windowHeight="19940" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="24900" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1238,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3037,7 +3037,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.43000000000000005" right="0.43000000000000005" top="0.51181102362204722" bottom="0.43000000000000005" header="0.43000000000000005" footer="0.43000000000000005"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/20.xlsx
+++ b/20.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="100">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Final decision:</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>1) Do not connect the adapter. Turn HV on, read after 60 sec</t>
   </si>
   <si>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>Corrected</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1241,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1257,12 +1260,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="31">
@@ -1274,11 +1277,11 @@
     </row>
     <row r="5" spans="1:15" ht="18">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>47</v>
@@ -1286,17 +1289,17 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="30">
         <v>79980109</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="26">
         <v>0.1</v>
@@ -1307,11 +1310,11 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="30">
         <v>26</v>
@@ -1319,11 +1322,11 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="30">
         <v>1268080</v>
@@ -2795,7 +2798,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2812,12 +2815,12 @@
         <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
       <c r="M57" s="30" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2828,29 +2831,31 @@
         <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
       <c r="M58" s="30" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="I59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
       <c r="M59" s="30" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="62" spans="1:15" ht="18">
       <c r="A62" s="1" t="s">
@@ -2865,7 +2870,7 @@
         <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2876,61 +2881,65 @@
         <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="16"/>
     </row>
     <row r="66" spans="1:13">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I66" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66" s="32">
+        <v>98.8</v>
+      </c>
+      <c r="L66" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="5" t="s">
+      <c r="M66" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="M66" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
-      </c>
-      <c r="K67" s="32"/>
+        <v>88</v>
+      </c>
+      <c r="K67" s="32">
+        <v>9.8759999999999994</v>
+      </c>
       <c r="L67" s="5" t="s">
         <v>45</v>
       </c>
       <c r="M67" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="I69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K69" s="33">
         <f>102000*K67*0.000001</f>
-        <v>0</v>
+        <v>1.007352</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="24">
         <v>1.7999999999999999E-2</v>
@@ -2939,12 +2948,12 @@
         <v>45</v>
       </c>
       <c r="I70" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="24">
         <v>2.1000000000000001E-2</v>
@@ -2955,7 +2964,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" s="24">
         <f>C71-C70</f>
@@ -2974,14 +2983,14 @@
         <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K72" s="18">
         <f>K66+K69</f>
-        <v>0</v>
+        <v>99.807351999999995</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3000,7 +3009,7 @@
       </c>
       <c r="B75" s="14" t="str">
         <f>IF(AND(C72&lt;=F72,ABS(K72-100)&lt;0.5),"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
     <row r="77" spans="1:13">
